--- a/Config.xlsx
+++ b/Config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\01. Procesos\FRAMEWORKS\Libraries\RPA\ClarkeModetRPA.002Mail\ClarkeModetRPA.002Mail\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ClonedRepos\MD\RPA.002Mail\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -36,99 +36,33 @@
     <t>SustitucionesTemplatesMail</t>
   </si>
   <si>
-    <t>Sust_NombreCortoProceso</t>
-  </si>
-  <si>
     <t>Sust_Usuario</t>
   </si>
   <si>
-    <t>Sust_ApodoProceso</t>
-  </si>
-  <si>
-    <t>Sust_Pais</t>
-  </si>
-  <si>
-    <t>Sust_FechaTransaccion</t>
-  </si>
-  <si>
     <t>Sust_CodigoExcepcion</t>
   </si>
   <si>
     <t>Sust_IDTransaccion</t>
   </si>
   <si>
-    <t>Sust_IDTransaccion2</t>
-  </si>
-  <si>
-    <t>Sust_DescripciónTransaccion</t>
-  </si>
-  <si>
     <t>Sust_DescripcionExcepcion</t>
   </si>
   <si>
-    <t>Sust_FechaComienzoEjecución</t>
-  </si>
-  <si>
     <t>Sust_TextoCuerpo</t>
   </si>
   <si>
     <t>Sust_FechaEjec</t>
   </si>
   <si>
-    <t>Sust_IDEjec</t>
-  </si>
-  <si>
     <t>Sust_Modulo</t>
   </si>
   <si>
-    <t>[Nombre Proceso]</t>
-  </si>
-  <si>
-    <t>[Fecha Comienzo Ejecución]</t>
-  </si>
-  <si>
     <t>[Usuario]</t>
   </si>
   <si>
-    <t>[Nombre Corto Proceso]</t>
-  </si>
-  <si>
-    <t>[Apodo Proceso]</t>
-  </si>
-  <si>
-    <t>[Pais]</t>
-  </si>
-  <si>
     <t>[TEXTO]</t>
   </si>
   <si>
-    <t>[ID Transacción]</t>
-  </si>
-  <si>
-    <t>[Id Transacción]</t>
-  </si>
-  <si>
-    <t>[Código Excepción]</t>
-  </si>
-  <si>
-    <t>[Descripción Excepción]</t>
-  </si>
-  <si>
-    <t>[Fecha Creación Transacción]</t>
-  </si>
-  <si>
-    <t>[Descripción]</t>
-  </si>
-  <si>
-    <t>[Fecha Fin Ejecución]</t>
-  </si>
-  <si>
-    <t>[ID Ejecución]</t>
-  </si>
-  <si>
-    <t>[Modulo]</t>
-  </si>
-  <si>
     <t>[RPA] - [Nombre Proceso] - Comunicación</t>
   </si>
   <si>
@@ -144,12 +78,6 @@
     <t>[RPA] - [Nombre Proceso] - Ejecución Finalizada</t>
   </si>
   <si>
-    <t>Sust_FechaFaultedEjec</t>
-  </si>
-  <si>
-    <t>[Fecha Ejecución]</t>
-  </si>
-  <si>
     <t>Subject_EmailComunicacion-es-ES</t>
   </si>
   <si>
@@ -223,6 +151,24 @@
   </si>
   <si>
     <t>[RPA] - [Nombre Proceso] - Execution Completed</t>
+  </si>
+  <si>
+    <t>[NOMBREPROCESO]</t>
+  </si>
+  <si>
+    <t>[FECHAEJECUCION]</t>
+  </si>
+  <si>
+    <t>[EXCEPTIONCODE]</t>
+  </si>
+  <si>
+    <t>[EXCEPTIONDETAILS]</t>
+  </si>
+  <si>
+    <t>[IDTRANSACCION]</t>
+  </si>
+  <si>
+    <t>[MODULO]</t>
   </si>
 </sst>
 </file>
@@ -603,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z945"/>
+  <dimension ref="A1:Z936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -653,122 +599,122 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="2" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="2" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
@@ -785,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
@@ -793,23 +739,23 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
@@ -817,118 +763,55 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A27" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:2" ht="14.25" customHeight="1"/>
+      <c r="B26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="33" ht="14.25" customHeight="1"/>
+    <row r="34" ht="14.25" customHeight="1"/>
+    <row r="35" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1"/>
+    <row r="37" ht="14.25" customHeight="1"/>
+    <row r="38" ht="14.25" customHeight="1"/>
+    <row r="39" ht="14.25" customHeight="1"/>
+    <row r="40" ht="14.25" customHeight="1"/>
+    <row r="41" ht="14.25" customHeight="1"/>
+    <row r="42" ht="14.25" customHeight="1"/>
+    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="44" ht="14.25" customHeight="1"/>
+    <row r="45" ht="14.25" customHeight="1"/>
+    <row r="46" ht="14.25" customHeight="1"/>
+    <row r="47" ht="14.25" customHeight="1"/>
+    <row r="48" ht="14.25" customHeight="1"/>
     <row r="49" ht="14.25" customHeight="1"/>
     <row r="50" ht="14.25" customHeight="1"/>
     <row r="51" ht="14.25" customHeight="1"/>
@@ -1817,15 +1700,6 @@
     <row r="934" ht="14.25" customHeight="1"/>
     <row r="935" ht="14.25" customHeight="1"/>
     <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -552,7 +552,7 @@
   <dimension ref="A1:Z936"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
